--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportCosts.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportCosts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Produits" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,9 +13,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Coûts!$B$3:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$K$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Produits!$B$3:$H$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$K$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -164,7 +163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF006600"/>
+        <fgColor rgb="FF004254"/>
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
@@ -214,12 +213,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -232,7 +231,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -271,7 +270,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004254"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -293,28 +292,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="11.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -396,7 +393,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:K3"/>
+  <autoFilter ref="B3:H3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -409,21 +406,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,8 +470,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
